--- a/src/matching/Matching.Unit.Tests/Assets/Matching-Rule-Multiple.xlsx
+++ b/src/matching/Matching.Unit.Tests/Assets/Matching-Rule-Multiple.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54026EB6-E293-42CC-B43B-33977F5F91D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157C7844-A6E7-4E4B-B893-C0EA636B6477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid" sheetId="5" r:id="rId1"/>
-    <sheet name="ByAddress" sheetId="1" r:id="rId2"/>
-    <sheet name="ByTitle" sheetId="6" r:id="rId3"/>
-    <sheet name="ByH1" sheetId="8" r:id="rId4"/>
-    <sheet name="Categories" sheetId="7" r:id="rId5"/>
+    <sheet name="Attributes-Address" sheetId="1" r:id="rId2"/>
+    <sheet name="Attributes-Title" sheetId="14" r:id="rId3"/>
+    <sheet name="Attributes-H1" sheetId="15" r:id="rId4"/>
+    <sheet name="Attributes-H2" sheetId="16" r:id="rId5"/>
+    <sheet name="Categories-Address" sheetId="10" r:id="rId6"/>
+    <sheet name="Categories-Title" sheetId="12" r:id="rId7"/>
+    <sheet name="Categories-H1" sheetId="13" r:id="rId8"/>
+    <sheet name="Categories-H2" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,83 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
-  <si>
-    <t xml:space="preserve">Education </t>
-  </si>
-  <si>
-    <t>Publications</t>
-  </si>
-  <si>
-    <t>AJCC</t>
-  </si>
-  <si>
-    <t>CCN</t>
-  </si>
-  <si>
-    <t>Bold Voices</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webinar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE Activites </t>
-  </si>
-  <si>
-    <t>Community Sharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online Sponsored Content </t>
-  </si>
-  <si>
-    <t>Online courses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nursing Excellence </t>
-  </si>
-  <si>
-    <t>CSI projects</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="66">
   <si>
     <t>Standards</t>
   </si>
   <si>
-    <t>Nurse Stories</t>
-  </si>
-  <si>
-    <t>Clinical Resources</t>
-  </si>
-  <si>
-    <t>Practice Alert</t>
-  </si>
-  <si>
-    <t>Podcasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newsroom </t>
-  </si>
-  <si>
-    <t>Clinical Voices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happenings </t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>Pocket Reference Card</t>
-  </si>
-  <si>
-    <t>Policy and Advocacy</t>
-  </si>
-  <si>
-    <t>Position Statments</t>
-  </si>
-  <si>
     <t>MatchValue</t>
   </si>
   <si>
@@ -131,153 +63,12 @@
     <t>OK</t>
   </si>
   <si>
-    <t>/education</t>
-  </si>
-  <si>
-    <t>/education/publications</t>
-  </si>
-  <si>
-    <t>/education/publications/ajcc</t>
-  </si>
-  <si>
-    <t>/education/publications/ccn</t>
-  </si>
-  <si>
-    <t>/education/publications/bold-voices</t>
-  </si>
-  <si>
-    <t>/education/publications/acc</t>
-  </si>
-  <si>
-    <t>/education/webinar-series</t>
-  </si>
-  <si>
-    <t>/education/ce-activities</t>
-  </si>
-  <si>
-    <t>/education/ce-activities/community-sharing/csed0012/nurses-escape-sepsis?target=ce-library</t>
-  </si>
-  <si>
-    <t>/education/ce-activities/oscas009/the-clinicians-third-hand-the-data-is-in-on-stethoscope-contamination?target=ce-library</t>
-  </si>
-  <si>
-    <t>/education/online-courses</t>
-  </si>
-  <si>
-    <t>/nursing-excellence</t>
-  </si>
-  <si>
-    <t>/nursing-excellence/csi-academy/projects</t>
-  </si>
-  <si>
-    <t>/nursing-excellence/aacn-standards</t>
-  </si>
-  <si>
-    <t>/nursing-excellence/nurse-stories</t>
-  </si>
-  <si>
-    <t>/clinical-resources</t>
-  </si>
-  <si>
-    <t>/clinical-resources/practice-alerts</t>
-  </si>
-  <si>
-    <t>/clinical-resources/covid-19/podcast-series</t>
-  </si>
-  <si>
-    <t>/newsroom</t>
-  </si>
-  <si>
-    <t>/store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-/store/books/400751/aacn-hemodynamic-management-pocket-reference-card</t>
-  </si>
-  <si>
-    <t>/policy-and-advocacy</t>
-  </si>
-  <si>
-    <t>/policy-and-advocacy/position-statements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-/newsroom?tab=Happenings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-/newsroom/clinical-voices</t>
-  </si>
-  <si>
     <t>Contains</t>
   </si>
   <si>
     <t>Invalid</t>
   </si>
   <si>
-    <t>Education2</t>
-  </si>
-  <si>
-    <t>Publications2</t>
-  </si>
-  <si>
-    <t>AJCC2</t>
-  </si>
-  <si>
-    <t>CCN2</t>
-  </si>
-  <si>
-    <t>Bold Voices2</t>
-  </si>
-  <si>
-    <t>ACC2</t>
-  </si>
-  <si>
-    <t>Webinar 2</t>
-  </si>
-  <si>
-    <t>CE Activites 2</t>
-  </si>
-  <si>
-    <t>Community Sharing2</t>
-  </si>
-  <si>
-    <t>Online Sponsored Content 2</t>
-  </si>
-  <si>
-    <t>Online courses2</t>
-  </si>
-  <si>
-    <t>Nursing Excellence 2</t>
-  </si>
-  <si>
-    <t>CSI projects2</t>
-  </si>
-  <si>
-    <t>Nurse Stories2</t>
-  </si>
-  <si>
-    <t>Standards2</t>
-  </si>
-  <si>
-    <t>Clinical Resources2</t>
-  </si>
-  <si>
-    <t>Practice Alert2</t>
-  </si>
-  <si>
-    <t>Podcasts2</t>
-  </si>
-  <si>
-    <t>Newsroom 2</t>
-  </si>
-  <si>
-    <t>Clinical Categories</t>
-  </si>
-  <si>
-    <t>Professional Practice Attributes</t>
-  </si>
-  <si>
     <t>Behavioral/Psychosocial</t>
   </si>
   <si>
@@ -426,6 +217,15 @@
   </si>
   <si>
     <t>TeleHealth</t>
+  </si>
+  <si>
+    <t>Title 1</t>
+  </si>
+  <si>
+    <t>H1-1</t>
+  </si>
+  <si>
+    <t>H2-1</t>
   </si>
 </sst>
 </file>
@@ -479,13 +279,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -783,44 +579,44 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -830,1021 +626,3123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D26"/>
+      <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="139.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="87.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" xr:uid="{97F72B8D-7DB7-4714-8410-4F7CF559A2D7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0A6734-79DA-401E-A230-7CD294563873}">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D583AE5-9D01-4703-8FD1-CB553B02CBBA}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" display="Nurse Stories" xr:uid="{3D3CD73D-3645-4A7D-B1BB-DD21702623D9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1628BBD-0FA4-4AEC-B738-1BB109C39686}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E105B-6896-4421-BFEA-5F8F745D2A55}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE217C9C-F418-42F0-9219-A4FF9960E5F5}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D143D3-29E6-4B64-A0E5-76FEFEBC0A9D}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
       <c r="B25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
       <c r="B26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
       <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD78EE9C-7E0A-4EF9-B357-70A78D8545C6}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>132</v>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01165B8-93E4-4B10-9592-6CE02767ADDD}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A70E44-D03E-4B0B-9770-B2D2B6AC8EA1}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BEB92B-9CF5-4393-B263-ED653EC0E98E}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
